--- a/imports/Personal.xlsx
+++ b/imports/Personal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\OPERACIÓN\GLOSARIO-SOP-CORRECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C9EED3-6B8A-4807-8E4D-965B55CAF3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ED3796-D7BE-4D2A-883C-BCACD4474CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{B8AE8316-DE00-4F18-9EBC-F49DAD0CC8B9}"/>
   </bookViews>
@@ -142,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -154,10 +154,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,7 +496,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -510,10 +506,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -522,8 +518,6 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
@@ -532,8 +526,6 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
@@ -542,8 +534,6 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
@@ -552,26 +542,23 @@
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
